--- a/SuppXLS/Scen_B_SYS_WAM_Emissions.xlsx
+++ b/SuppXLS/Scen_B_SYS_WAM_Emissions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998B644B-907E-4E94-B65D-56AA2FC95BA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69C14E6-8715-4F36-947A-03DA5B9C8990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="1200" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -627,7 +627,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -649,6 +649,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="5x indented GHG Textfiels" xfId="3" xr:uid="{5F614CE9-C529-4323-B893-6D57470EC2CB}"/>
@@ -1850,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011941A8-04BF-45E8-9F60-D4E07475AB4A}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,38 +2010,38 @@
       <c r="B7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="8">
-        <v>35044</v>
-      </c>
-      <c r="D7" s="8">
-        <v>39834</v>
-      </c>
-      <c r="E7" s="8">
-        <v>38317</v>
-      </c>
-      <c r="F7" s="8">
-        <v>37424</v>
-      </c>
-      <c r="G7" s="8">
-        <v>36288</v>
-      </c>
-      <c r="H7" s="8">
-        <v>34557</v>
-      </c>
-      <c r="I7" s="8">
-        <v>32327</v>
-      </c>
-      <c r="J7" s="8">
-        <v>31553</v>
-      </c>
-      <c r="K7" s="8">
-        <v>30410</v>
-      </c>
-      <c r="L7" s="8">
-        <v>29410</v>
-      </c>
-      <c r="M7">
-        <v>28010</v>
+      <c r="C7" s="16">
+        <v>33792</v>
+      </c>
+      <c r="D7" s="16">
+        <v>35644</v>
+      </c>
+      <c r="E7" s="16">
+        <v>36186</v>
+      </c>
+      <c r="F7" s="16">
+        <v>35729</v>
+      </c>
+      <c r="G7" s="16">
+        <v>34339</v>
+      </c>
+      <c r="H7" s="16">
+        <v>32912</v>
+      </c>
+      <c r="I7" s="16">
+        <v>30554</v>
+      </c>
+      <c r="J7" s="16">
+        <v>29948</v>
+      </c>
+      <c r="K7" s="16">
+        <v>28505</v>
+      </c>
+      <c r="L7" s="16">
+        <v>27699</v>
+      </c>
+      <c r="M7" s="16">
+        <v>27046</v>
       </c>
       <c r="N7" s="8">
         <v>5</v>
@@ -2409,7 +2410,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2417,8 +2418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9318C9B-7F0A-410C-BCB5-F22D93E1F454}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,7 +2534,7 @@
       </c>
       <c r="J7" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F7,config!$B$6:$N$6,),FALSE)</f>
-        <v>35044</v>
+        <v>33792</v>
       </c>
       <c r="K7" s="8" t="str">
         <f>VLOOKUP(K$5, config!$B$4:$N$14,2,FALSE) &amp; " - Single"</f>
@@ -2584,7 +2585,7 @@
       </c>
       <c r="J9" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F9,config!$B$6:$N$6,),FALSE)</f>
-        <v>39834</v>
+        <v>35644</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2631,7 +2632,7 @@
       </c>
       <c r="J11" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F11,config!$B$6:$N$6,),FALSE)</f>
-        <v>38317</v>
+        <v>36186</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2678,7 +2679,7 @@
       </c>
       <c r="J13" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F13,config!$B$6:$N$6,),FALSE)</f>
-        <v>37424</v>
+        <v>35729</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2725,7 +2726,7 @@
       </c>
       <c r="J15" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F15,config!$B$6:$N$6,),FALSE)</f>
-        <v>36288</v>
+        <v>34339</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2772,7 +2773,7 @@
       </c>
       <c r="J17" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F17,config!$B$6:$N$6,),FALSE)</f>
-        <v>34557</v>
+        <v>32912</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
@@ -2819,7 +2820,7 @@
       </c>
       <c r="J19" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F19,config!$B$6:$N$6,),FALSE)</f>
-        <v>32327</v>
+        <v>30554</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
@@ -2866,7 +2867,7 @@
       </c>
       <c r="J21" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F21,config!$B$6:$N$6,),FALSE)</f>
-        <v>31553</v>
+        <v>29948</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
@@ -2913,7 +2914,7 @@
       </c>
       <c r="J23" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F23,config!$B$6:$N$6,),FALSE)</f>
-        <v>30410</v>
+        <v>28505</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
@@ -2960,7 +2961,7 @@
       </c>
       <c r="J25" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F25,config!$B$6:$N$6,),FALSE)</f>
-        <v>29410</v>
+        <v>27699</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
@@ -3007,7 +3008,7 @@
       </c>
       <c r="J27" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F27,config!$B$6:$N$6,),FALSE)</f>
-        <v>28010</v>
+        <v>27046</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
@@ -3167,7 +3168,7 @@
       </c>
       <c r="J7" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F7,config!$B$6:$N$6,),FALSE)</f>
-        <v>35044</v>
+        <v>33792</v>
       </c>
       <c r="K7" s="8" t="str">
         <f>VLOOKUP(K$5, config!$B$4:$N$14,2,FALSE) &amp; " - Multi"</f>
@@ -3218,7 +3219,7 @@
       </c>
       <c r="J9" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F9,config!$B$6:$N$6,),FALSE)</f>
-        <v>39834</v>
+        <v>35644</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3265,7 +3266,7 @@
       </c>
       <c r="J11" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F11,config!$B$6:$N$6,),FALSE)</f>
-        <v>38317</v>
+        <v>36186</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3312,7 +3313,7 @@
       </c>
       <c r="J13" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F13,config!$B$6:$N$6,),FALSE)</f>
-        <v>37424</v>
+        <v>35729</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3359,7 +3360,7 @@
       </c>
       <c r="J15" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F15,config!$B$6:$N$6,),FALSE)</f>
-        <v>36288</v>
+        <v>34339</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3406,7 +3407,7 @@
       </c>
       <c r="J17" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F17,config!$B$6:$N$6,),FALSE)</f>
-        <v>34557</v>
+        <v>32912</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
@@ -3453,7 +3454,7 @@
       </c>
       <c r="J19" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F19,config!$B$6:$N$6,),FALSE)</f>
-        <v>32327</v>
+        <v>30554</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
@@ -3500,7 +3501,7 @@
       </c>
       <c r="J21" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F21,config!$B$6:$N$6,),FALSE)</f>
-        <v>31553</v>
+        <v>29948</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
@@ -3547,7 +3548,7 @@
       </c>
       <c r="J23" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F23,config!$B$6:$N$6,),FALSE)</f>
-        <v>30410</v>
+        <v>28505</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
@@ -3594,7 +3595,7 @@
       </c>
       <c r="J25" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F25,config!$B$6:$N$6,),FALSE)</f>
-        <v>29410</v>
+        <v>27699</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
@@ -3641,7 +3642,7 @@
       </c>
       <c r="J27" s="8">
         <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F27,config!$B$6:$N$6,),FALSE)</f>
-        <v>28010</v>
+        <v>27046</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
